--- a/VariablesBDatos_V2.xlsx
+++ b/VariablesBDatos_V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Andres\ANDES\2.5\ProblemSet2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ea_garcia_uniandes_edu_co/Documents/MECA 2022_2023/BIGDATA/TALLERES/ProblemSet2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83243BBE-2E01-46E6-BC5A-B03EF6E2EF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{83243BBE-2E01-46E6-BC5A-B03EF6E2EF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C320CEEF-C59D-4B5E-81C0-4FC9EB77E2AC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{E906E044-D978-481C-9036-6120ADAEBE16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E906E044-D978-481C-9036-6120ADAEBE16}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
@@ -1227,16 +1227,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1548,14 +1539,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D04FD68-0339-4B46-93B6-32821028A924}">
   <dimension ref="B2:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="5" customWidth="1"/>
